--- a/Замеры -  2вар.xlsx
+++ b/Замеры -  2вар.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7700F2-E19E-4E58-B16A-F63C45CCDCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B09FA01-92ED-4388-9F44-E0750558A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,43 +454,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.546875</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.546875</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5625</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.578125</c:v>
+                  <c:v>4.6875E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.609375</c:v>
+                  <c:v>4.6875E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.609375</c:v>
+                  <c:v>7.8125E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.609375</c:v>
+                  <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.828125</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.421875</c:v>
+                  <c:v>1.34375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.015625</c:v>
+                  <c:v>2.703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1875</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.53125</c:v>
+                  <c:v>23.078125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,43 +594,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>4.6875E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6875E-2</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1.328125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.125</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.265625</c:v>
+                  <c:v>7.015625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,6 +709,7 @@
       <c:valAx>
         <c:axId val="1568166304"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1743,10 +1744,10 @@
         <v>0.640625</v>
       </c>
       <c r="D4">
-        <v>0.546875</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1760,10 +1761,10 @@
         <v>0.671875</v>
       </c>
       <c r="D5">
-        <v>0.546875</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1777,7 +1778,7 @@
         <v>0.671875</v>
       </c>
       <c r="D6">
-        <v>0.5625</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E6">
         <v>1.5625E-2</v>
@@ -1794,10 +1795,10 @@
         <v>0.671875</v>
       </c>
       <c r="D7">
-        <v>0.578125</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E7">
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1811,10 +1812,10 @@
         <v>0.671875</v>
       </c>
       <c r="D8">
-        <v>0.609375</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E8">
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1828,10 +1829,10 @@
         <v>0.671875</v>
       </c>
       <c r="D9">
-        <v>0.609375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="E9">
-        <v>1.5625E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1845,10 +1846,10 @@
         <v>0.703125</v>
       </c>
       <c r="D10">
-        <v>0.609375</v>
+        <v>0.140625</v>
       </c>
       <c r="E10">
-        <v>1.5625E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,10 +1863,10 @@
         <v>0.703125</v>
       </c>
       <c r="D11">
-        <v>0.71875</v>
+        <v>0.296875</v>
       </c>
       <c r="E11">
-        <v>1.5625E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1879,10 +1880,10 @@
         <v>0.71875</v>
       </c>
       <c r="D12">
-        <v>0.828125</v>
+        <v>0.65625</v>
       </c>
       <c r="E12">
-        <v>1.5625E-2</v>
+        <v>0.328125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1896,10 +1897,10 @@
         <v>0.765625</v>
       </c>
       <c r="D13">
-        <v>1.421875</v>
+        <v>1.34375</v>
       </c>
       <c r="E13">
-        <v>4.6875E-2</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1913,10 +1914,10 @@
         <v>0.859375</v>
       </c>
       <c r="D14">
-        <v>2.015625</v>
+        <v>2.703125</v>
       </c>
       <c r="E14">
-        <v>6.25E-2</v>
+        <v>1.328125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1930,10 +1931,10 @@
         <v>1.109375</v>
       </c>
       <c r="D15">
-        <v>3.1875</v>
+        <v>7.125</v>
       </c>
       <c r="E15">
-        <v>0.125</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1947,10 +1948,10 @@
         <v>1.578125</v>
       </c>
       <c r="D16">
-        <v>5.53125</v>
+        <v>23.078125</v>
       </c>
       <c r="E16">
-        <v>0.265625</v>
+        <v>7.015625</v>
       </c>
     </row>
   </sheetData>

--- a/Замеры -  2вар.xlsx
+++ b/Замеры -  2вар.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B09FA01-92ED-4388-9F44-E0750558A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0CD0A-8C83-4E04-BDB0-DE5A85482920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -344,7 +353,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.859375</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.109375</c:v>
@@ -624,13 +633,13 @@
                   <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.328125</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.625</c:v>
+                  <c:v>1.6875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.015625</c:v>
+                  <c:v>3.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1705,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,13 +1920,15 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.859375</v>
+        <f>0.78125</f>
+        <v>0.78125</v>
       </c>
       <c r="D14">
         <v>2.703125</v>
       </c>
       <c r="E14">
-        <v>1.328125</v>
+        <f>0.875</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1934,7 +1945,8 @@
         <v>7.125</v>
       </c>
       <c r="E15">
-        <v>2.625</v>
+        <f>1.6875</f>
+        <v>1.6875</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1951,7 +1963,8 @@
         <v>23.078125</v>
       </c>
       <c r="E16">
-        <v>7.015625</v>
+        <f>3.3125</f>
+        <v>3.3125</v>
       </c>
     </row>
   </sheetData>
